--- a/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>说明</t>
   </si>
   <si>
-    <t>制作材料</t>
+    <t>制作材料（id|数量）</t>
   </si>
   <si>
     <t>增益效果(Potion_AddDamage增伤，Potion_AddAttackSpeed攻速提升，Potion_AddCommand控制，Potion_AddBlood血量恢复，Potion_AddArmorBonus增加护甲值，Potion_MonomerDamage单体伤害，Potion_AOE群体伤害)</t>
@@ -46,13 +46,13 @@
     <t>目标对象1-己方单位，2-敌方单位</t>
   </si>
   <si>
-    <t>增益值（增伤，攻速，恢复血量为百分比提升；控制效果为秒；单（群）体伤害为固定值）</t>
-  </si>
-  <si>
-    <t>维持时长分钟</t>
-  </si>
-  <si>
-    <t>制作时间（分钟）</t>
+    <t>增益值（增伤，攻速，恢复血量为目标单位百分比提升；控制效果为秒；单（群）体伤害为固定值）</t>
+  </si>
+  <si>
+    <t>维持时长（s）</t>
+  </si>
+  <si>
+    <t>制作时间（s）</t>
   </si>
   <si>
     <t>A</t>
@@ -222,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -244,7 +244,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,10 +293,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,10 +347,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,104 +380,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -414,187 +414,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,30 +623,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -658,6 +634,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +664,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -703,20 +695,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,133 +738,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,7 +1233,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1435,7 +1435,6 @@
       <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2"/>
       <c r="K5" s="2">
         <v>50</v>
       </c>
@@ -1480,7 +1479,6 @@
       <c r="I6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="2"/>
       <c r="K6" s="2">
         <v>50</v>
       </c>
@@ -1526,7 +1524,6 @@
       <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="2"/>
       <c r="K7" s="2">
         <v>100</v>
       </c>
@@ -1572,7 +1569,6 @@
       <c r="I8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="2"/>
       <c r="K8" s="2">
         <v>100</v>
       </c>
@@ -1618,7 +1614,6 @@
       <c r="I9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="2"/>
       <c r="K9" s="2">
         <v>150</v>
       </c>
@@ -1664,7 +1659,6 @@
       <c r="I10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="2"/>
       <c r="K10" s="2">
         <v>150</v>
       </c>

--- a/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
@@ -231,9 +228,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -262,6 +259,89 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,29 +356,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,47 +370,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,34 +388,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -418,187 +415,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,21 +620,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,7 +654,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,11 +668,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,17 +707,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,133 +739,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -951,308 +948,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>石材</v>
-          </cell>
-          <cell r="B5">
-            <v>1001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>木材</v>
-          </cell>
-          <cell r="B6">
-            <v>1002</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>铁矿</v>
-          </cell>
-          <cell r="B7">
-            <v>1003</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>铁</v>
-          </cell>
-          <cell r="B8">
-            <v>1004</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>钢</v>
-          </cell>
-          <cell r="B9">
-            <v>1005</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>硝石矿</v>
-          </cell>
-          <cell r="B10">
-            <v>1006</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>硝石</v>
-          </cell>
-          <cell r="B11">
-            <v>1007</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>火药</v>
-          </cell>
-          <cell r="B12">
-            <v>1008</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>兽皮</v>
-          </cell>
-          <cell r="B13">
-            <v>1009</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>皮革</v>
-          </cell>
-          <cell r="B14">
-            <v>1010</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>精皮革</v>
-          </cell>
-          <cell r="B15">
-            <v>1011</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>红水晶</v>
-          </cell>
-          <cell r="B16">
-            <v>1012</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>紫水晶</v>
-          </cell>
-          <cell r="B17">
-            <v>1013</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>黑水晶</v>
-          </cell>
-          <cell r="B18">
-            <v>1014</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>红宝石</v>
-          </cell>
-          <cell r="B19">
-            <v>1015</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>紫宝石</v>
-          </cell>
-          <cell r="B20">
-            <v>1016</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>黑宝石</v>
-          </cell>
-          <cell r="B21">
-            <v>1017</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>珊瑚</v>
-          </cell>
-          <cell r="B22">
-            <v>1018</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>珍珠</v>
-          </cell>
-          <cell r="B23">
-            <v>1019</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>琥珀</v>
-          </cell>
-          <cell r="B24">
-            <v>1020</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>人鱼眼泪</v>
-          </cell>
-          <cell r="B25">
-            <v>1021</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>神秘黏液</v>
-          </cell>
-          <cell r="B26">
-            <v>1022</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>巨蜥尾巴</v>
-          </cell>
-          <cell r="B27">
-            <v>1023</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>湛蓝羽毛</v>
-          </cell>
-          <cell r="B28">
-            <v>1024</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>鲷鱼</v>
-          </cell>
-          <cell r="B29">
-            <v>1025</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>银鲳</v>
-          </cell>
-          <cell r="B30">
-            <v>1026</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>鱿鱼</v>
-          </cell>
-          <cell r="B31">
-            <v>1027</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>金枪鱼</v>
-          </cell>
-          <cell r="B32">
-            <v>1028</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>鲨鱼</v>
-          </cell>
-          <cell r="B33">
-            <v>1029</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>大章鱼</v>
-          </cell>
-          <cell r="B34">
-            <v>1030</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>辣椒</v>
-          </cell>
-          <cell r="B35">
-            <v>1031</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>橘子</v>
-          </cell>
-          <cell r="B36">
-            <v>1032</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>土豆</v>
-          </cell>
-          <cell r="B37">
-            <v>1033</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>柠檬</v>
-          </cell>
-          <cell r="B38">
-            <v>1034</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>迷迭香</v>
-          </cell>
-          <cell r="B39">
-            <v>1035</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>番茄</v>
-          </cell>
-          <cell r="B40">
-            <v>1036</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1545,7 +1240,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1795,7 +1490,6 @@
       <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="2"/>
       <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1819,7 +1513,6 @@
         <v>36</v>
       </c>
       <c r="O5" s="5">
-        <f>VLOOKUP(N5,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1008</v>
       </c>
       <c r="P5" s="2">
@@ -1829,7 +1522,6 @@
         <v>37</v>
       </c>
       <c r="R5" s="5">
-        <f>VLOOKUP(Q5,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1004</v>
       </c>
       <c r="S5" s="2">
@@ -1861,7 +1553,6 @@
       <c r="E6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
@@ -1885,7 +1576,6 @@
         <v>43</v>
       </c>
       <c r="O6" s="5">
-        <f>VLOOKUP(N6,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1021</v>
       </c>
       <c r="P6" s="2">
@@ -1895,7 +1585,6 @@
         <v>44</v>
       </c>
       <c r="R6" s="5">
-        <f>VLOOKUP(Q6,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1023</v>
       </c>
       <c r="S6" s="2">
@@ -1927,7 +1616,6 @@
       <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="2"/>
       <c r="G7" s="4" t="s">
         <v>34</v>
       </c>
@@ -1951,7 +1639,6 @@
         <v>49</v>
       </c>
       <c r="O7" s="5">
-        <f>VLOOKUP(N7,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1009</v>
       </c>
       <c r="P7" s="2">
@@ -1961,7 +1648,6 @@
         <v>37</v>
       </c>
       <c r="R7" s="5">
-        <f>VLOOKUP(Q7,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1004</v>
       </c>
       <c r="S7" s="2">
@@ -1993,7 +1679,6 @@
       <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2"/>
       <c r="G8" s="4" t="s">
         <v>34</v>
       </c>
@@ -2017,7 +1702,6 @@
         <v>43</v>
       </c>
       <c r="O8" s="5">
-        <f>VLOOKUP(N8,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1021</v>
       </c>
       <c r="P8" s="2">
@@ -2027,7 +1711,6 @@
         <v>54</v>
       </c>
       <c r="R8" s="5">
-        <f>VLOOKUP(Q8,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1022</v>
       </c>
       <c r="S8" s="2">
@@ -2059,7 +1742,6 @@
       <c r="E9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2083,7 +1765,6 @@
         <v>36</v>
       </c>
       <c r="O9" s="5">
-        <f>VLOOKUP(N9,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1008</v>
       </c>
       <c r="P9" s="2">
@@ -2093,7 +1774,6 @@
         <v>37</v>
       </c>
       <c r="R9" s="5">
-        <f>VLOOKUP(Q9,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1004</v>
       </c>
       <c r="S9" s="2">
@@ -2125,7 +1805,6 @@
       <c r="E10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="4" t="s">
         <v>34</v>
       </c>
@@ -2149,7 +1828,6 @@
         <v>43</v>
       </c>
       <c r="O10" s="5">
-        <f>VLOOKUP(N10,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1021</v>
       </c>
       <c r="P10" s="2">
@@ -2159,7 +1837,6 @@
         <v>63</v>
       </c>
       <c r="R10" s="5">
-        <f>VLOOKUP(Q10,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1024</v>
       </c>
       <c r="S10" s="2">
@@ -2214,7 +1891,6 @@
         <v>54</v>
       </c>
       <c r="O11" s="5">
-        <f>VLOOKUP(N11,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1022</v>
       </c>
       <c r="P11" s="2">
@@ -2224,7 +1900,6 @@
         <v>44</v>
       </c>
       <c r="R11" s="5">
-        <f>VLOOKUP(Q11,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1023</v>
       </c>
       <c r="S11" s="2">

--- a/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,9 @@
     <t>制作时间（s）</t>
   </si>
   <si>
+    <t>制作花费</t>
+  </si>
+  <si>
     <t>材料名称</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>MakeTime</t>
   </si>
   <si>
+    <t>MakeCost</t>
+  </si>
+  <si>
     <t>巨型炮弹</t>
   </si>
   <si>
@@ -131,9 +137,6 @@
   </si>
   <si>
     <t>铁</t>
-  </si>
-  <si>
-    <t>金币</t>
   </si>
   <si>
     <t>攻击药水</t>
@@ -228,8 +231,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
@@ -265,7 +268,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,9 +291,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,20 +329,52 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -325,68 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -421,175 +424,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,11 +662,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,38 +719,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,137 +742,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -881,6 +884,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1235,12 +1241,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1252,11 +1258,11 @@
     <col min="8" max="9" width="17.1296296296296" style="2" customWidth="1"/>
     <col min="10" max="11" width="8" style="2" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="13" max="14" width="19.5" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:22">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1302,7 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1306,7 +1312,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1315,190 +1321,184 @@
         <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:22">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="N2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="O2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:13">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
+      <c r="N3" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:13">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:20">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f>O5&amp;"|"&amp;P5&amp;";"&amp;R5&amp;"|"&amp;S5&amp;";"&amp;U5&amp;"|"&amp;V5</f>
-        <v>1008|5;1004|5;-1|1000</v>
+        <f>P5&amp;"|"&amp;Q5&amp;";"&amp;S5&amp;"|"&amp;T5</f>
+        <v>1008|5;1004|5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2">
         <v>50</v>
@@ -1509,59 +1509,53 @@
       <c r="M5" s="2">
         <v>60</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="N5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="6">
         <v>1008</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>5</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="5">
+      <c r="R5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="6">
         <v>1004</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>5</v>
       </c>
-      <c r="T5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="5">
-        <v>-1</v>
-      </c>
-      <c r="V5" s="5">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:20">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f t="shared" ref="H6:H11" si="0">O6&amp;"|"&amp;P6&amp;";"&amp;R6&amp;"|"&amp;S6&amp;";"&amp;U6&amp;"|"&amp;V6</f>
-        <v>1021|5;1023|5;-1|1000</v>
+        <f t="shared" ref="H6:H11" si="0">P6&amp;"|"&amp;Q6&amp;";"&amp;S6&amp;"|"&amp;T6</f>
+        <v>1021|5;1023|5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2">
         <v>50</v>
@@ -1572,59 +1566,53 @@
       <c r="M6" s="2">
         <v>61</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="N6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="6">
         <v>1021</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>5</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="R6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="6">
         <v>1023</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>5</v>
       </c>
-      <c r="T6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="5">
-        <v>-1</v>
-      </c>
-      <c r="V6" s="5">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:20">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1009|5;1004|5;-1|1000</v>
+        <v>1009|5;1004|5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" s="2">
         <v>50</v>
@@ -1635,59 +1623,53 @@
       <c r="M7" s="2">
         <v>62</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="N7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="6">
         <v>1009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>5</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="R7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="6">
         <v>1004</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>5</v>
       </c>
-      <c r="T7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="V7" s="5">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:20">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1021|5;1022|5;-1|1000</v>
+        <v>1021|5;1022|5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="2">
         <v>50</v>
@@ -1698,59 +1680,53 @@
       <c r="M8" s="2">
         <v>63</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="N8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="6">
         <v>1021</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>5</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R8" s="5">
+      <c r="R8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" s="6">
         <v>1022</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>5</v>
       </c>
-      <c r="T8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="V8" s="5">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:20">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1008|5;1004|5;-1|1000</v>
+        <v>1008|5;1004|5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="2">
         <v>50</v>
@@ -1761,59 +1737,53 @@
       <c r="M9" s="2">
         <v>64</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="N9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="6">
         <v>1008</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>5</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="R9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="6">
         <v>1004</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <v>5</v>
       </c>
-      <c r="T9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="V9" s="5">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:22">
+    <row r="10" ht="15" customHeight="1" spans="1:20">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1021|5;1024|5;-1|1000</v>
+        <v>1021|5;1024|5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2">
         <v>50</v>
@@ -1824,59 +1794,53 @@
       <c r="M10" s="2">
         <v>65</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="N10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="6">
         <v>1021</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>5</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R10" s="5">
+      <c r="R10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="6">
         <v>1024</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>5</v>
       </c>
-      <c r="T10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="V10" s="5">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:20">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1022|5;1023|5;-1|1000</v>
+        <v>1022|5;1023|5</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="2">
         <v>50</v>
@@ -1887,38 +1851,27 @@
       <c r="M11" s="2">
         <v>66</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="N11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="6">
         <v>1022</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>5</v>
       </c>
-      <c r="Q11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11" s="5">
+      <c r="R11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="6">
         <v>1023</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T11" s="2">
         <v>5</v>
       </c>
-      <c r="T11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="V11" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="20:22">
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A3:K15">

--- a/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,9 @@
     <t>角标</t>
   </si>
   <si>
+    <t>品质(道具名称及道具框颜色，1-红色，2-紫色，3-黑色)</t>
+  </si>
+  <si>
     <t>说明</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Superscript</t>
+  </si>
+  <si>
+    <t>Quality</t>
   </si>
   <si>
     <t>Desc</t>
@@ -231,8 +237,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
@@ -253,6 +259,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -260,8 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +307,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,6 +326,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,27 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -327,9 +365,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,27 +389,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,29 +402,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -418,187 +424,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,17 +633,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -649,15 +644,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,17 +663,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,6 +707,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -730,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,137 +748,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -880,13 +886,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1241,12 +1250,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N4"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1254,22 +1263,23 @@
     <col min="1" max="1" width="7.44444444444444" style="2" customWidth="1"/>
     <col min="2" max="4" width="10.8796296296296" style="2" customWidth="1"/>
     <col min="5" max="6" width="16" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.75" style="2" customWidth="1"/>
-    <col min="8" max="9" width="17.1296296296296" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="2" customWidth="1"/>
-    <col min="13" max="14" width="19.5" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="14.2222222222222" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.75" style="2" customWidth="1"/>
+    <col min="9" max="10" width="17.1296296296296" style="2" customWidth="1"/>
+    <col min="11" max="12" width="8" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="2" customWidth="1"/>
+    <col min="14" max="15" width="19.5" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:20">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1287,25 +1297,25 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1315,7 +1325,7 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>14</v>
@@ -1323,558 +1333,591 @@
       <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:20">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="P2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:14">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>18</v>
+      <c r="N3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:14">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="2" t="str">
-        <f>P5&amp;"|"&amp;Q5&amp;";"&amp;S5&amp;"|"&amp;T5</f>
+        <v>37</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>Q5&amp;"|"&amp;R5&amp;";"&amp;T5&amp;"|"&amp;U5</f>
         <v>1008|5;1004|5</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="2">
         <v>50</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>20</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>60</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>10000</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="P5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="7">
         <v>1008</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>5</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="6">
+      <c r="S5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="7">
         <v>1004</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="str">
-        <f t="shared" ref="H6:H11" si="0">P6&amp;"|"&amp;Q6&amp;";"&amp;S6&amp;"|"&amp;T6</f>
+        <v>44</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" ref="I6:I11" si="0">Q6&amp;"|"&amp;R6&amp;";"&amp;T6&amp;"|"&amp;U6</f>
         <v>1021|5;1023|5</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="2">
         <v>50</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>20</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>61</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>10000</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="P6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="7">
         <v>1021</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>5</v>
       </c>
-      <c r="R6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="6">
+      <c r="S6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="7">
         <v>1023</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2" t="str">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1009|5;1004|5</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="2">
         <v>50</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>20</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>62</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>10000</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="P7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="7">
         <v>1009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>5</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S7" s="6">
+      <c r="S7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="7">
         <v>1004</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="2" t="str">
+        <v>55</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1021|5;1022|5</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="2">
         <v>50</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>20</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>63</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>10000</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="P8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7">
         <v>1021</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>5</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S8" s="6">
+      <c r="S8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="7">
         <v>1022</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="2" t="str">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1008|5;1004|5</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="J9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="2">
         <v>50</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>20</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>64</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>10000</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="P9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="7">
         <v>1008</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>5</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" s="6">
+      <c r="S9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="7">
         <v>1004</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:20">
+    <row r="10" ht="15" customHeight="1" spans="1:21">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2" t="str">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1021|5;1024|5</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="J10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="2">
         <v>50</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>20</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>65</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>10000</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="P10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="7">
         <v>1021</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>5</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S10" s="6">
+      <c r="S10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="7">
         <v>1024</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="2" t="str">
+        <v>69</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1022|5;1023|5</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="J11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="2">
         <v>50</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>20</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>66</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>10000</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="P11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="7">
         <v>1022</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <v>5</v>
       </c>
-      <c r="R11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S11" s="6">
+      <c r="S11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="7">
         <v>1023</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:K15">
+  <sortState ref="A3:L15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
@@ -237,8 +237,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
@@ -257,6 +257,65 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -268,28 +327,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,24 +348,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,75 +402,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -424,25 +424,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,43 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,109 +580,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,17 +633,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,11 +665,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,24 +707,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,160 +730,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,7 +1255,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="2">
-        <v>1001</v>
+        <v>1401</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>35</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="2">
-        <v>1002</v>
+        <v>1402</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>42</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="2">
-        <v>1003</v>
+        <v>1403</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>48</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="2">
-        <v>1004</v>
+        <v>1404</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>53</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="2">
-        <v>1005</v>
+        <v>1405</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>58</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:21">
       <c r="A10" s="2">
-        <v>1006</v>
+        <v>1406</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>62</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="2">
-        <v>1007</v>
+        <v>1407</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>67</v>

--- a/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -85,10 +85,13 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>SpriteName</t>
@@ -237,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -257,6 +260,96 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -268,29 +361,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -299,20 +377,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,36 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -365,43 +399,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -430,25 +433,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,151 +601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,26 +651,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,20 +675,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +696,24 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -736,10 +739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,133 +751,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,7 +1258,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A11"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1460,40 +1463,40 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1501,29 +1504,29 @@
         <v>1401</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2" t="str">
         <f>Q5&amp;"|"&amp;R5&amp;";"&amp;T5&amp;"|"&amp;U5</f>
         <v>1008|5;1004|5</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2">
         <v>50</v>
@@ -1538,7 +1541,7 @@
         <v>10000</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="7">
         <v>1008</v>
@@ -1547,7 +1550,7 @@
         <v>5</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" s="7">
         <v>1004</v>
@@ -1561,29 +1564,29 @@
         <v>1402</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" ref="I6:I11" si="0">Q6&amp;"|"&amp;R6&amp;";"&amp;T6&amp;"|"&amp;U6</f>
         <v>1021|5;1023|5</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2">
         <v>50</v>
@@ -1598,7 +1601,7 @@
         <v>10000</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="7">
         <v>1021</v>
@@ -1607,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T6" s="7">
         <v>1023</v>
@@ -1621,29 +1624,29 @@
         <v>1403</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1009|5;1004|5</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L7" s="2">
         <v>50</v>
@@ -1658,7 +1661,7 @@
         <v>10000</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="7">
         <v>1009</v>
@@ -1667,7 +1670,7 @@
         <v>5</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" s="7">
         <v>1004</v>
@@ -1681,29 +1684,29 @@
         <v>1404</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1021|5;1022|5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L8" s="2">
         <v>50</v>
@@ -1718,7 +1721,7 @@
         <v>10000</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7">
         <v>1021</v>
@@ -1727,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" s="7">
         <v>1022</v>
@@ -1741,29 +1744,29 @@
         <v>1405</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1008|5;1004|5</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" s="2">
         <v>50</v>
@@ -1778,7 +1781,7 @@
         <v>10000</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7">
         <v>1008</v>
@@ -1787,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T9" s="7">
         <v>1004</v>
@@ -1801,29 +1804,29 @@
         <v>1406</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1021|5;1024|5</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="2">
         <v>50</v>
@@ -1838,7 +1841,7 @@
         <v>10000</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7">
         <v>1021</v>
@@ -1847,7 +1850,7 @@
         <v>5</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T10" s="7">
         <v>1024</v>
@@ -1861,29 +1864,29 @@
         <v>1407</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1022|5;1023|5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" s="2">
         <v>50</v>
@@ -1898,7 +1901,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7">
         <v>1022</v>
@@ -1907,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T11" s="7">
         <v>1023</v>

--- a/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>GiantShells</t>
+  </si>
+  <si>
+    <t>Sign_Ship1</t>
   </si>
   <si>
     <t>A good thing.</t>
@@ -240,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -263,14 +266,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,30 +340,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,21 +394,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,67 +402,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -427,187 +430,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,30 +639,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -675,6 +654,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -686,26 +674,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,16 +701,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,133 +754,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1258,7 +1261,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1515,18 +1518,21 @@
       <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="str">
         <f>Q5&amp;"|"&amp;R5&amp;";"&amp;T5&amp;"|"&amp;U5</f>
         <v>1008|5;1004|5</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L5" s="2">
         <v>50</v>
@@ -1541,7 +1547,7 @@
         <v>10000</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7">
         <v>1008</v>
@@ -1550,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T5" s="7">
         <v>1004</v>
@@ -1564,29 +1570,32 @@
         <v>1402</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" ref="I6:I11" si="0">Q6&amp;"|"&amp;R6&amp;";"&amp;T6&amp;"|"&amp;U6</f>
         <v>1021|5;1023|5</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" s="2">
         <v>50</v>
@@ -1601,7 +1610,7 @@
         <v>10000</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="7">
         <v>1021</v>
@@ -1610,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T6" s="7">
         <v>1023</v>
@@ -1624,29 +1633,32 @@
         <v>1403</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1009|5;1004|5</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L7" s="2">
         <v>50</v>
@@ -1661,7 +1673,7 @@
         <v>10000</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="7">
         <v>1009</v>
@@ -1670,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T7" s="7">
         <v>1004</v>
@@ -1684,29 +1696,32 @@
         <v>1404</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1021|5;1022|5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L8" s="2">
         <v>50</v>
@@ -1721,7 +1736,7 @@
         <v>10000</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7">
         <v>1021</v>
@@ -1730,7 +1745,7 @@
         <v>5</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T8" s="7">
         <v>1022</v>
@@ -1744,29 +1759,32 @@
         <v>1405</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1008|5;1004|5</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" s="2">
         <v>50</v>
@@ -1781,7 +1799,7 @@
         <v>10000</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7">
         <v>1008</v>
@@ -1790,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T9" s="7">
         <v>1004</v>
@@ -1804,29 +1822,32 @@
         <v>1406</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1021|5;1024|5</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" s="2">
         <v>50</v>
@@ -1841,7 +1862,7 @@
         <v>10000</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7">
         <v>1021</v>
@@ -1850,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T10" s="7">
         <v>1024</v>
@@ -1864,29 +1885,32 @@
         <v>1407</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1022|5;1023|5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="2">
         <v>50</v>
@@ -1901,7 +1925,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7">
         <v>1022</v>
@@ -1910,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T11" s="7">
         <v>1023</v>

--- a/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -34,7 +34,7 @@
     <t>角标</t>
   </si>
   <si>
-    <t>品质(道具名称及道具框颜色，1-红色，2-紫色，3-黑色)</t>
+    <t>品质(白色-普通-Normal；绿色-进阶-Advanced；蓝色-稀有-Rare；紫色-史诗-Epic；红色-传说-Legendary；金色-不朽-Immortal)</t>
   </si>
   <si>
     <t>说明</t>
@@ -49,7 +49,7 @@
     <t>目标对象1-己方单位，2-敌方单位</t>
   </si>
   <si>
-    <t>增益值（增伤，攻速，恢复血量为目标单位百分比提升；控制效果为秒；单（群）体伤害为固定值）</t>
+    <t>增益值 参数|数值（Rate-比例单位%；Time-时间单位s；FixedValue-固定值）</t>
   </si>
   <si>
     <t>维持时长（s）</t>
@@ -139,10 +139,16 @@
     <t>Sign_Ship1</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
     <t>A good thing.</t>
   </si>
   <si>
-    <t>Potion_SingleDamage</t>
+    <t>PotionSingleDamage</t>
+  </si>
+  <si>
+    <t>FixedValue|5000</t>
   </si>
   <si>
     <t>火药</t>
@@ -160,7 +166,10 @@
     <t>AttackPotion</t>
   </si>
   <si>
-    <t>Potion_PowerUp</t>
+    <t>PotionPowerUp</t>
+  </si>
+  <si>
+    <t>Rate|0.5</t>
   </si>
   <si>
     <t>人鱼眼泪</t>
@@ -178,7 +187,7 @@
     <t>ShieldScroll</t>
   </si>
   <si>
-    <t>Potion_BoostArmor</t>
+    <t>PotionBoostArmor</t>
   </si>
   <si>
     <t>兽皮</t>
@@ -193,7 +202,7 @@
     <t>LifePotion</t>
   </si>
   <si>
-    <t>Potion_HPRecovery</t>
+    <t>PotionHPRecovery</t>
   </si>
   <si>
     <t>神秘黏液</t>
@@ -208,7 +217,7 @@
     <t>ContinuousShells</t>
   </si>
   <si>
-    <t>Potion_AOE</t>
+    <t>PotionAOE</t>
   </si>
   <si>
     <t>攻速药水</t>
@@ -220,7 +229,7 @@
     <t>HastePotions</t>
   </si>
   <si>
-    <t>Potion_AttackRateUp</t>
+    <t>PotionAttackRateUp</t>
   </si>
   <si>
     <t>湛蓝羽毛</t>
@@ -235,7 +244,10 @@
     <t>SuperThickMucus</t>
   </si>
   <si>
-    <t>Potion_CrowdControl</t>
+    <t>PotionCrowdControl</t>
+  </si>
+  <si>
+    <t>Time|2</t>
   </si>
 </sst>
 </file>
@@ -243,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -265,6 +277,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -272,6 +307,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -286,128 +420,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -430,187 +442,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,6 +647,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,17 +690,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +704,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,21 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -727,25 +748,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,34 +766,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,94 +805,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1258,10 +1270,10 @@
   <sheetPr/>
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1272,7 +1284,8 @@
     <col min="7" max="7" width="14.2222222222222" style="3" customWidth="1"/>
     <col min="8" max="8" width="33.75" style="2" customWidth="1"/>
     <col min="9" max="10" width="17.1296296296296" style="2" customWidth="1"/>
-    <col min="11" max="12" width="8" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.6666666666667" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.5" style="2" customWidth="1"/>
     <col min="14" max="15" width="19.5" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
@@ -1424,11 +1437,11 @@
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>20</v>
@@ -1443,7 +1456,7 @@
         <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>19</v>
@@ -1521,21 +1534,24 @@
       <c r="F5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="3">
-        <v>2</v>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="str">
         <f>Q5&amp;"|"&amp;R5&amp;";"&amp;T5&amp;"|"&amp;U5</f>
         <v>1008|5;1004|5</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="2">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M5" s="2">
         <v>20</v>
@@ -1547,7 +1563,7 @@
         <v>10000</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="7">
         <v>1008</v>
@@ -1556,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T5" s="7">
         <v>1004</v>
@@ -1570,34 +1586,37 @@
         <v>1402</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="3">
-        <v>2</v>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" ref="I6:I11" si="0">Q6&amp;"|"&amp;R6&amp;";"&amp;T6&amp;"|"&amp;U6</f>
         <v>1021|5;1023|5</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="2">
+        <v>49</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M6" s="2">
@@ -1610,7 +1629,7 @@
         <v>10000</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="7">
         <v>1021</v>
@@ -1619,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T6" s="7">
         <v>1023</v>
@@ -1633,35 +1652,38 @@
         <v>1403</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="3">
-        <v>2</v>
+      <c r="G7" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1009|5;1004|5</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="2">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M7" s="2">
         <v>20</v>
@@ -1673,7 +1695,7 @@
         <v>10000</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="7">
         <v>1009</v>
@@ -1682,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T7" s="7">
         <v>1004</v>
@@ -1696,34 +1718,37 @@
         <v>1404</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="3">
-        <v>2</v>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1021|5;1022|5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="2">
+        <v>61</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M8" s="2">
@@ -1736,7 +1761,7 @@
         <v>10000</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7">
         <v>1021</v>
@@ -1745,7 +1770,7 @@
         <v>5</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T8" s="7">
         <v>1022</v>
@@ -1759,35 +1784,38 @@
         <v>1405</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="3">
-        <v>2</v>
+      <c r="G9" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1008|5;1004|5</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="2">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M9" s="2">
         <v>20</v>
@@ -1799,7 +1827,7 @@
         <v>10000</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7">
         <v>1008</v>
@@ -1808,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T9" s="7">
         <v>1004</v>
@@ -1822,34 +1850,37 @@
         <v>1406</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="3">
-        <v>2</v>
+      <c r="G10" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1021|5;1024|5</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="2">
+        <v>70</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M10" s="2">
@@ -1862,7 +1893,7 @@
         <v>10000</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7">
         <v>1021</v>
@@ -1871,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="T10" s="7">
         <v>1024</v>
@@ -1885,35 +1916,38 @@
         <v>1407</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3">
-        <v>2</v>
+      <c r="G11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1022|5;1023|5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="2">
-        <v>50</v>
+        <v>75</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="M11" s="2">
         <v>20</v>
@@ -1925,7 +1959,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7">
         <v>1022</v>
@@ -1934,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T11" s="7">
         <v>1023</v>

--- a/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/PotionSynthesisConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -49,7 +49,7 @@
     <t>目标对象1-己方单位，2-敌方单位</t>
   </si>
   <si>
-    <t>增益值 参数|数值（Rate-比例单位%；Time-时间单位s；FixedValue-固定值）</t>
+    <t>增益值 参数|数值（Rate-比例单位%；Time-时间单位s）</t>
   </si>
   <si>
     <t>维持时长（s）</t>
@@ -148,7 +148,7 @@
     <t>PotionSingleDamage</t>
   </si>
   <si>
-    <t>FixedValue|5000</t>
+    <t>Rate|0.5</t>
   </si>
   <si>
     <t>火药</t>
@@ -169,9 +169,6 @@
     <t>PotionPowerUp</t>
   </si>
   <si>
-    <t>Rate|0.5</t>
-  </si>
-  <si>
     <t>人鱼眼泪</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
   </si>
   <si>
     <t>PotionCrowdControl</t>
-  </si>
-  <si>
-    <t>Time|2</t>
   </si>
 </sst>
 </file>
@@ -255,11 +249,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -275,6 +269,50 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -285,13 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -301,44 +332,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,21 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -374,18 +363,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,27 +395,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -442,13 +436,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,169 +610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,17 +645,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,20 +669,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,22 +688,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,6 +710,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -754,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,133 +760,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1270,10 +1264,10 @@
   <sheetPr/>
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1288,7 +1282,7 @@
     <col min="12" max="12" width="21.6666666666667" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.5" style="2" customWidth="1"/>
     <col min="14" max="15" width="19.5" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="16" max="16383" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="12" spans="1:21">
@@ -1553,9 +1547,7 @@
       <c r="L5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="2">
-        <v>20</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2">
         <v>60</v>
       </c>
@@ -1617,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M6" s="2">
         <v>20</v>
@@ -1629,7 +1621,7 @@
         <v>10000</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="7">
         <v>1021</v>
@@ -1638,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T6" s="7">
         <v>1023</v>
@@ -1652,16 +1644,16 @@
         <v>1403</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>39</v>
@@ -1677,7 +1669,7 @@
         <v>1009|5;1004|5</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1695,7 +1687,7 @@
         <v>10000</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7">
         <v>1009</v>
@@ -1718,16 +1710,16 @@
         <v>1404</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>39</v>
@@ -1743,13 +1735,13 @@
         <v>1021|5;1022|5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M8" s="2">
         <v>20</v>
@@ -1761,7 +1753,7 @@
         <v>10000</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7">
         <v>1021</v>
@@ -1770,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T8" s="7">
         <v>1022</v>
@@ -1784,16 +1776,16 @@
         <v>1405</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>39</v>
@@ -1809,7 +1801,7 @@
         <v>1008|5;1004|5</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" s="2">
         <v>2</v>
@@ -1817,9 +1809,7 @@
       <c r="L9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="2">
-        <v>20</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2">
         <v>64</v>
       </c>
@@ -1850,16 +1840,16 @@
         <v>1406</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>39</v>
@@ -1875,13 +1865,13 @@
         <v>1021|5;1024|5</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M10" s="2">
         <v>20</v>
@@ -1893,7 +1883,7 @@
         <v>10000</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7">
         <v>1021</v>
@@ -1902,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T10" s="7">
         <v>1024</v>
@@ -1916,16 +1906,16 @@
         <v>1407</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>39</v>
@@ -1941,13 +1931,13 @@
         <v>1022|5;1023|5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="M11" s="2">
         <v>20</v>
@@ -1959,7 +1949,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7">
         <v>1022</v>
@@ -1968,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T11" s="7">
         <v>1023</v>
